--- a/FY2018_Q3_UAS_Sightings.xlsx
+++ b/FY2018_Q3_UAS_Sightings.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AQS100MH.000\Documents\AUS\Data Redaction\FY2018\Q3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcgar\Documents\DATA_SCIENCE\AmericanU\AU_drones_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C064CB4-3409-4C64-A614-CB36994C5420}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9216"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2353" uniqueCount="1089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2357" uniqueCount="1091">
   <si>
     <t>Day of Date of Sighting</t>
   </si>
@@ -9763,12 +9764,18 @@
   </si>
   <si>
     <t>Summary</t>
+  </si>
+  <si>
+    <t>SOUTH DAKOTA</t>
+  </si>
+  <si>
+    <t>IOWA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -9821,12 +9828,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -9835,6 +9836,12 @@
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -9850,16 +9857,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D785" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:D785"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D787" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D787" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="A2:G1518">
     <sortCondition descending="1" ref="A1:A1518"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="3" name="Day of Date of Sighting" dataDxfId="5"/>
-    <tableColumn id="4" name="State" dataDxfId="4"/>
-    <tableColumn id="5" name="City" dataDxfId="3"/>
-    <tableColumn id="8" name="Summary" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Day of Date of Sighting" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="State" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="City" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Summary" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10127,24 +10134,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D785"/>
+  <dimension ref="A1:D787"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A782" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="C785" sqref="C785"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="72.77734375" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="22.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.6328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="72.81640625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.90625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10158,7 +10165,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>43281</v>
       </c>
@@ -10172,7 +10179,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>43281</v>
       </c>
@@ -10186,7 +10193,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4">
         <v>43281</v>
       </c>
@@ -10200,7 +10207,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>43281</v>
       </c>
@@ -10214,7 +10221,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
         <v>43281</v>
       </c>
@@ -10228,7 +10235,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>43281</v>
       </c>
@@ -10242,7 +10249,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
         <v>43281</v>
       </c>
@@ -10256,7 +10263,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>43281</v>
       </c>
@@ -10270,7 +10277,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
         <v>43281</v>
       </c>
@@ -10284,7 +10291,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>43281</v>
       </c>
@@ -10298,7 +10305,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
         <v>43281</v>
       </c>
@@ -10312,7 +10319,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
         <v>43281</v>
       </c>
@@ -10326,7 +10333,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
         <v>43280</v>
       </c>
@@ -10340,7 +10347,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
         <v>43280</v>
       </c>
@@ -10354,7 +10361,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
         <v>43280</v>
       </c>
@@ -10368,7 +10375,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
         <v>43280</v>
       </c>
@@ -10382,7 +10389,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
         <v>43280</v>
       </c>
@@ -10396,7 +10403,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
         <v>43280</v>
       </c>
@@ -10410,7 +10417,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
         <v>43280</v>
       </c>
@@ -10424,7 +10431,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
         <v>43280</v>
       </c>
@@ -10438,7 +10445,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>43280</v>
       </c>
@@ -10452,7 +10459,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>43280</v>
       </c>
@@ -10466,7 +10473,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>43280</v>
       </c>
@@ -10480,7 +10487,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>43280</v>
       </c>
@@ -10494,7 +10501,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>43280</v>
       </c>
@@ -10508,7 +10515,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>43279</v>
       </c>
@@ -10522,7 +10529,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>43279</v>
       </c>
@@ -10536,7 +10543,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>43279</v>
       </c>
@@ -10550,7 +10557,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>43279</v>
       </c>
@@ -10564,7 +10571,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>43279</v>
       </c>
@@ -10578,7 +10585,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>43278</v>
       </c>
@@ -10592,7 +10599,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>43278</v>
       </c>
@@ -10606,7 +10613,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>43278</v>
       </c>
@@ -10620,7 +10627,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>43278</v>
       </c>
@@ -10634,7 +10641,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="288" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="290" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>43278</v>
       </c>
@@ -10648,7 +10655,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>43278</v>
       </c>
@@ -10662,7 +10669,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>43278</v>
       </c>
@@ -10676,7 +10683,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>43278</v>
       </c>
@@ -10690,7 +10697,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>43277</v>
       </c>
@@ -10704,7 +10711,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>43277</v>
       </c>
@@ -10718,7 +10725,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>43277</v>
       </c>
@@ -10732,7 +10739,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <v>43277</v>
       </c>
@@ -10746,7 +10753,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A44" s="4">
         <v>43277</v>
       </c>
@@ -10760,7 +10767,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
         <v>43277</v>
       </c>
@@ -10774,7 +10781,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
         <v>43277</v>
       </c>
@@ -10788,7 +10795,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
         <v>43277</v>
       </c>
@@ -10802,7 +10809,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="288" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="290" x14ac:dyDescent="0.35">
       <c r="A48" s="4">
         <v>43277</v>
       </c>
@@ -10816,7 +10823,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
         <v>43276</v>
       </c>
@@ -10830,7 +10837,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
         <v>43276</v>
       </c>
@@ -10844,7 +10851,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
         <v>43276</v>
       </c>
@@ -10858,7 +10865,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
         <v>43276</v>
       </c>
@@ -10872,7 +10879,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="319" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
         <v>43276</v>
       </c>
@@ -10886,7 +10893,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
         <v>43275</v>
       </c>
@@ -10900,7 +10907,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A55" s="4">
         <v>43275</v>
       </c>
@@ -10914,7 +10921,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A56" s="4">
         <v>43275</v>
       </c>
@@ -10928,7 +10935,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A57" s="4">
         <v>43275</v>
       </c>
@@ -10942,7 +10949,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A58" s="4">
         <v>43275</v>
       </c>
@@ -10956,7 +10963,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A59" s="4">
         <v>43275</v>
       </c>
@@ -10970,7 +10977,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A60" s="4">
         <v>43275</v>
       </c>
@@ -10984,7 +10991,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A61" s="4">
         <v>43275</v>
       </c>
@@ -10998,7 +11005,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A62" s="4">
         <v>43275</v>
       </c>
@@ -11012,7 +11019,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A63" s="4">
         <v>43275</v>
       </c>
@@ -11026,7 +11033,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="288" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="290" x14ac:dyDescent="0.35">
       <c r="A64" s="4">
         <v>43275</v>
       </c>
@@ -11040,7 +11047,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A65" s="4">
         <v>43275</v>
       </c>
@@ -11054,7 +11061,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A66" s="4">
         <v>43275</v>
       </c>
@@ -11068,7 +11075,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A67" s="4">
         <v>43274</v>
       </c>
@@ -11082,7 +11089,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A68" s="4">
         <v>43274</v>
       </c>
@@ -11096,7 +11103,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A69" s="4">
         <v>43274</v>
       </c>
@@ -11110,7 +11117,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A70" s="4">
         <v>43274</v>
       </c>
@@ -11124,7 +11131,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A71" s="4">
         <v>43274</v>
       </c>
@@ -11138,7 +11145,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A72" s="4">
         <v>43274</v>
       </c>
@@ -11152,7 +11159,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A73" s="4">
         <v>43274</v>
       </c>
@@ -11166,7 +11173,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A74" s="4">
         <v>43274</v>
       </c>
@@ -11180,7 +11187,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A75" s="4">
         <v>43274</v>
       </c>
@@ -11194,7 +11201,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A76" s="4">
         <v>43274</v>
       </c>
@@ -11208,7 +11215,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A77" s="4">
         <v>43274</v>
       </c>
@@ -11222,7 +11229,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A78" s="4">
         <v>43274</v>
       </c>
@@ -11236,7 +11243,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A79" s="4">
         <v>43273</v>
       </c>
@@ -11250,7 +11257,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A80" s="4">
         <v>43273</v>
       </c>
@@ -11264,7 +11271,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A81" s="4">
         <v>43273</v>
       </c>
@@ -11278,7 +11285,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A82" s="4">
         <v>43273</v>
       </c>
@@ -11292,7 +11299,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A83" s="4">
         <v>43273</v>
       </c>
@@ -11306,7 +11313,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A84" s="4">
         <v>43273</v>
       </c>
@@ -11320,7 +11327,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A85" s="4">
         <v>43273</v>
       </c>
@@ -11334,7 +11341,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A86" s="4">
         <v>43273</v>
       </c>
@@ -11348,7 +11355,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A87" s="4">
         <v>43273</v>
       </c>
@@ -11362,7 +11369,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A88" s="4">
         <v>43272</v>
       </c>
@@ -11376,7 +11383,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A89" s="4">
         <v>43272</v>
       </c>
@@ -11390,7 +11397,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A90" s="4">
         <v>43272</v>
       </c>
@@ -11404,7 +11411,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A91" s="4">
         <v>43272</v>
       </c>
@@ -11418,7 +11425,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A92" s="4">
         <v>43272</v>
       </c>
@@ -11432,7 +11439,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A93" s="4">
         <v>43272</v>
       </c>
@@ -11446,7 +11453,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A94" s="4">
         <v>43272</v>
       </c>
@@ -11460,7 +11467,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A95" s="4">
         <v>43271</v>
       </c>
@@ -11474,7 +11481,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A96" s="4">
         <v>43271</v>
       </c>
@@ -11488,7 +11495,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A97" s="4">
         <v>43271</v>
       </c>
@@ -11502,7 +11509,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A98" s="4">
         <v>43271</v>
       </c>
@@ -11516,7 +11523,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A99" s="4">
         <v>43271</v>
       </c>
@@ -11530,7 +11537,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A100" s="4">
         <v>43271</v>
       </c>
@@ -11544,7 +11551,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A101" s="4">
         <v>43271</v>
       </c>
@@ -11558,7 +11565,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A102" s="4">
         <v>43271</v>
       </c>
@@ -11572,7 +11579,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A103" s="4">
         <v>43270</v>
       </c>
@@ -11586,7 +11593,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A104" s="4">
         <v>43270</v>
       </c>
@@ -11600,7 +11607,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A105" s="4">
         <v>43270</v>
       </c>
@@ -11614,7 +11621,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A106" s="4">
         <v>43270</v>
       </c>
@@ -11628,7 +11635,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A107" s="4">
         <v>43270</v>
       </c>
@@ -11642,7 +11649,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A108" s="4">
         <v>43270</v>
       </c>
@@ -11656,7 +11663,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A109" s="4">
         <v>43270</v>
       </c>
@@ -11670,7 +11677,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A110" s="4">
         <v>43270</v>
       </c>
@@ -11684,7 +11691,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="288" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" ht="290" x14ac:dyDescent="0.35">
       <c r="A111" s="4">
         <v>43270</v>
       </c>
@@ -11698,7 +11705,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A112" s="4">
         <v>43270</v>
       </c>
@@ -11712,7 +11719,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A113" s="4">
         <v>43270</v>
       </c>
@@ -11726,7 +11733,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A114" s="4">
         <v>43270</v>
       </c>
@@ -11740,7 +11747,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A115" s="4">
         <v>43270</v>
       </c>
@@ -11754,7 +11761,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A116" s="4">
         <v>43270</v>
       </c>
@@ -11768,7 +11775,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A117" s="4">
         <v>43270</v>
       </c>
@@ -11782,7 +11789,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A118" s="4">
         <v>43269</v>
       </c>
@@ -11796,7 +11803,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A119" s="4">
         <v>43269</v>
       </c>
@@ -11810,7 +11817,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="4">
         <v>43269</v>
       </c>
@@ -11822,7 +11829,7 @@
       </c>
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A121" s="4">
         <v>43269</v>
       </c>
@@ -11836,7 +11843,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A122" s="4">
         <v>43269</v>
       </c>
@@ -11850,7 +11857,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A123" s="4">
         <v>43269</v>
       </c>
@@ -11864,7 +11871,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A124" s="4">
         <v>43269</v>
       </c>
@@ -11878,7 +11885,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A125" s="4">
         <v>43269</v>
       </c>
@@ -11892,7 +11899,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A126" s="4">
         <v>43269</v>
       </c>
@@ -11906,7 +11913,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A127" s="4">
         <v>43269</v>
       </c>
@@ -11920,7 +11927,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A128" s="4">
         <v>43269</v>
       </c>
@@ -11934,7 +11941,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A129" s="4">
         <v>43269</v>
       </c>
@@ -11948,7 +11955,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A130" s="4">
         <v>43269</v>
       </c>
@@ -11962,7 +11969,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A131" s="4">
         <v>43269</v>
       </c>
@@ -11976,7 +11983,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A132" s="4">
         <v>43269</v>
       </c>
@@ -11990,7 +11997,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A133" s="4">
         <v>43268</v>
       </c>
@@ -12004,7 +12011,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A134" s="4">
         <v>43268</v>
       </c>
@@ -12018,7 +12025,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A135" s="4">
         <v>43268</v>
       </c>
@@ -12032,7 +12039,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A136" s="4">
         <v>43268</v>
       </c>
@@ -12046,7 +12053,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A137" s="4">
         <v>43268</v>
       </c>
@@ -12060,7 +12067,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A138" s="4">
         <v>43268</v>
       </c>
@@ -12074,7 +12081,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A139" s="4">
         <v>43268</v>
       </c>
@@ -12088,7 +12095,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A140" s="4">
         <v>43268</v>
       </c>
@@ -12102,7 +12109,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A141" s="4">
         <v>43268</v>
       </c>
@@ -12116,7 +12123,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A142" s="4">
         <v>43268</v>
       </c>
@@ -12130,7 +12137,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A143" s="4">
         <v>43268</v>
       </c>
@@ -12144,7 +12151,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A144" s="4">
         <v>43268</v>
       </c>
@@ -12158,7 +12165,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A145" s="4">
         <v>43268</v>
       </c>
@@ -12172,7 +12179,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A146" s="4">
         <v>43268</v>
       </c>
@@ -12186,7 +12193,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A147" s="4">
         <v>43268</v>
       </c>
@@ -12200,7 +12207,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A148" s="4">
         <v>43268</v>
       </c>
@@ -12214,7 +12221,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A149" s="4">
         <v>43268</v>
       </c>
@@ -12228,7 +12235,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A150" s="4">
         <v>43267</v>
       </c>
@@ -12242,7 +12249,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A151" s="4">
         <v>43267</v>
       </c>
@@ -12256,7 +12263,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A152" s="4">
         <v>43267</v>
       </c>
@@ -12270,7 +12277,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A153" s="4">
         <v>43267</v>
       </c>
@@ -12284,7 +12291,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A154" s="4">
         <v>43267</v>
       </c>
@@ -12298,7 +12305,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A155" s="4">
         <v>43267</v>
       </c>
@@ -12312,7 +12319,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A156" s="4">
         <v>43267</v>
       </c>
@@ -12326,7 +12333,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A157" s="4">
         <v>43267</v>
       </c>
@@ -12340,7 +12347,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A158" s="4">
         <v>43267</v>
       </c>
@@ -12354,7 +12361,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A159" s="4">
         <v>43267</v>
       </c>
@@ -12368,7 +12375,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A160" s="4">
         <v>43267</v>
       </c>
@@ -12382,7 +12389,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A161" s="4">
         <v>43267</v>
       </c>
@@ -12396,7 +12403,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A162" s="4">
         <v>43267</v>
       </c>
@@ -12410,7 +12417,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="288" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" ht="290" x14ac:dyDescent="0.35">
       <c r="A163" s="4">
         <v>43267</v>
       </c>
@@ -12424,7 +12431,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A164" s="4">
         <v>43267</v>
       </c>
@@ -12438,7 +12445,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A165" s="4">
         <v>43267</v>
       </c>
@@ -12452,7 +12459,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A166" s="4">
         <v>43266</v>
       </c>
@@ -12466,7 +12473,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="288" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" ht="290" x14ac:dyDescent="0.35">
       <c r="A167" s="4">
         <v>43266</v>
       </c>
@@ -12480,7 +12487,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A168" s="4">
         <v>43266</v>
       </c>
@@ -12494,7 +12501,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="169" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A169" s="4">
         <v>43266</v>
       </c>
@@ -12508,7 +12515,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A170" s="4">
         <v>43266</v>
       </c>
@@ -12522,7 +12529,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A171" s="4">
         <v>43266</v>
       </c>
@@ -12536,7 +12543,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A172" s="4">
         <v>43266</v>
       </c>
@@ -12550,7 +12557,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A173" s="4">
         <v>43266</v>
       </c>
@@ -12564,7 +12571,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A174" s="4">
         <v>43266</v>
       </c>
@@ -12578,7 +12585,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A175" s="4">
         <v>43265</v>
       </c>
@@ -12592,7 +12599,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A176" s="4">
         <v>43265</v>
       </c>
@@ -12606,7 +12613,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A177" s="4">
         <v>43265</v>
       </c>
@@ -12620,7 +12627,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A178" s="4">
         <v>43265</v>
       </c>
@@ -12634,7 +12641,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A179" s="4">
         <v>43265</v>
       </c>
@@ -12648,7 +12655,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A180" s="4">
         <v>43265</v>
       </c>
@@ -12662,7 +12669,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="181" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A181" s="4">
         <v>43265</v>
       </c>
@@ -12676,7 +12683,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A182" s="4">
         <v>43265</v>
       </c>
@@ -12690,7 +12697,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="183" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A183" s="4">
         <v>43265</v>
       </c>
@@ -12704,7 +12711,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A184" s="4">
         <v>43265</v>
       </c>
@@ -12718,7 +12725,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A185" s="4">
         <v>43265</v>
       </c>
@@ -12732,7 +12739,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A186" s="4">
         <v>43264</v>
       </c>
@@ -12746,7 +12753,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="187" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A187" s="4">
         <v>43264</v>
       </c>
@@ -12760,7 +12767,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A188" s="4">
         <v>43264</v>
       </c>
@@ -12774,7 +12781,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A189" s="4">
         <v>43264</v>
       </c>
@@ -12788,7 +12795,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="190" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A190" s="4">
         <v>43264</v>
       </c>
@@ -12802,7 +12809,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A191" s="4">
         <v>43264</v>
       </c>
@@ -12816,7 +12823,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A192" s="4">
         <v>43264</v>
       </c>
@@ -12830,7 +12837,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A193" s="4">
         <v>43264</v>
       </c>
@@ -12844,7 +12851,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A194" s="4">
         <v>43263</v>
       </c>
@@ -12858,7 +12865,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A195" s="4">
         <v>43263</v>
       </c>
@@ -12872,7 +12879,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A196" s="4">
         <v>43263</v>
       </c>
@@ -12886,7 +12893,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A197" s="4">
         <v>43263</v>
       </c>
@@ -12900,7 +12907,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="198" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A198" s="4">
         <v>43263</v>
       </c>
@@ -12914,7 +12921,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A199" s="4">
         <v>43263</v>
       </c>
@@ -12928,7 +12935,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="200" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A200" s="4">
         <v>43263</v>
       </c>
@@ -12942,7 +12949,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A201" s="4">
         <v>43263</v>
       </c>
@@ -12956,7 +12963,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A202" s="4">
         <v>43263</v>
       </c>
@@ -12970,7 +12977,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A203" s="4">
         <v>43263</v>
       </c>
@@ -12984,7 +12991,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A204" s="4">
         <v>43263</v>
       </c>
@@ -12998,7 +13005,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A205" s="4">
         <v>43263</v>
       </c>
@@ -13012,7 +13019,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A206" s="4">
         <v>43262</v>
       </c>
@@ -13026,7 +13033,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A207" s="4">
         <v>43262</v>
       </c>
@@ -13040,7 +13047,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="208" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A208" s="4">
         <v>43262</v>
       </c>
@@ -13054,7 +13061,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A209" s="4">
         <v>43262</v>
       </c>
@@ -13068,7 +13075,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A210" s="4">
         <v>43262</v>
       </c>
@@ -13082,7 +13089,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A211" s="4">
         <v>43262</v>
       </c>
@@ -13096,7 +13103,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A212" s="4">
         <v>43262</v>
       </c>
@@ -13110,7 +13117,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A213" s="4">
         <v>43262</v>
       </c>
@@ -13124,7 +13131,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A214" s="4">
         <v>43262</v>
       </c>
@@ -13138,7 +13145,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A215" s="4">
         <v>43262</v>
       </c>
@@ -13152,7 +13159,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A216" s="4">
         <v>43262</v>
       </c>
@@ -13166,7 +13173,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A217" s="4">
         <v>43262</v>
       </c>
@@ -13180,7 +13187,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A218" s="4">
         <v>43262</v>
       </c>
@@ -13194,7 +13201,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A219" s="4">
         <v>43261</v>
       </c>
@@ -13208,7 +13215,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="288" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" ht="290" x14ac:dyDescent="0.35">
       <c r="A220" s="4">
         <v>43261</v>
       </c>
@@ -13222,7 +13229,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="288" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" ht="290" x14ac:dyDescent="0.35">
       <c r="A221" s="4">
         <v>43261</v>
       </c>
@@ -13236,7 +13243,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A222" s="4">
         <v>43261</v>
       </c>
@@ -13250,7 +13257,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="288" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" ht="290" x14ac:dyDescent="0.35">
       <c r="A223" s="4">
         <v>43261</v>
       </c>
@@ -13264,7 +13271,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A224" s="4">
         <v>43261</v>
       </c>
@@ -13278,7 +13285,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A225" s="4">
         <v>43261</v>
       </c>
@@ -13292,7 +13299,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A226" s="4">
         <v>43261</v>
       </c>
@@ -13306,7 +13313,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A227" s="4">
         <v>43261</v>
       </c>
@@ -13320,7 +13327,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A228" s="4">
         <v>43261</v>
       </c>
@@ -13334,7 +13341,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A229" s="4">
         <v>43261</v>
       </c>
@@ -13348,7 +13355,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A230" s="4">
         <v>43261</v>
       </c>
@@ -13362,7 +13369,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A231" s="4">
         <v>43261</v>
       </c>
@@ -13376,7 +13383,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A232" s="4">
         <v>43261</v>
       </c>
@@ -13390,7 +13397,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="288" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" ht="290" x14ac:dyDescent="0.35">
       <c r="A233" s="4">
         <v>43261</v>
       </c>
@@ -13404,7 +13411,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A234" s="4">
         <v>43261</v>
       </c>
@@ -13418,7 +13425,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A235" s="4">
         <v>43261</v>
       </c>
@@ -13432,7 +13439,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A236" s="4">
         <v>43261</v>
       </c>
@@ -13446,7 +13453,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A237" s="4">
         <v>43260</v>
       </c>
@@ -13460,7 +13467,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A238" s="4">
         <v>43260</v>
       </c>
@@ -13474,7 +13481,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A239" s="4">
         <v>43260</v>
       </c>
@@ -13488,7 +13495,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="240" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A240" s="4">
         <v>43260</v>
       </c>
@@ -13502,7 +13509,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A241" s="4">
         <v>43260</v>
       </c>
@@ -13516,7 +13523,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A242" s="4">
         <v>43260</v>
       </c>
@@ -13530,7 +13537,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A243" s="4">
         <v>43259</v>
       </c>
@@ -13544,7 +13551,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A244" s="4">
         <v>43259</v>
       </c>
@@ -13558,7 +13565,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A245" s="4">
         <v>43259</v>
       </c>
@@ -13572,7 +13579,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A246" s="4">
         <v>43259</v>
       </c>
@@ -13586,7 +13593,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A247" s="4">
         <v>43259</v>
       </c>
@@ -13600,7 +13607,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="248" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A248" s="4">
         <v>43259</v>
       </c>
@@ -13614,7 +13621,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A249" s="4">
         <v>43259</v>
       </c>
@@ -13628,7 +13635,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="288" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" ht="290" x14ac:dyDescent="0.35">
       <c r="A250" s="4">
         <v>43258</v>
       </c>
@@ -13642,7 +13649,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A251" s="4">
         <v>43258</v>
       </c>
@@ -13656,7 +13663,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A252" s="4">
         <v>43258</v>
       </c>
@@ -13670,7 +13677,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A253" s="4">
         <v>43258</v>
       </c>
@@ -13684,7 +13691,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A254" s="4">
         <v>43258</v>
       </c>
@@ -13698,7 +13705,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A255" s="4">
         <v>43258</v>
       </c>
@@ -13712,7 +13719,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A256" s="4">
         <v>43258</v>
       </c>
@@ -13726,7 +13733,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A257" s="4">
         <v>43258</v>
       </c>
@@ -13740,7 +13747,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A258" s="4">
         <v>43258</v>
       </c>
@@ -13754,7 +13761,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="259" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" ht="333.5" x14ac:dyDescent="0.35">
       <c r="A259" s="4">
         <v>43258</v>
       </c>
@@ -13768,7 +13775,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="260" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A260" s="4">
         <v>43258</v>
       </c>
@@ -13782,7 +13789,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="261" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A261" s="4">
         <v>43258</v>
       </c>
@@ -13796,7 +13803,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A262" s="4">
         <v>43257</v>
       </c>
@@ -13810,7 +13817,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A263" s="4">
         <v>43257</v>
       </c>
@@ -13824,7 +13831,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="264" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A264" s="4">
         <v>43257</v>
       </c>
@@ -13838,7 +13845,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A265" s="4">
         <v>43257</v>
       </c>
@@ -13852,7 +13859,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="266" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A266" s="4">
         <v>43257</v>
       </c>
@@ -13866,7 +13873,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A267" s="4">
         <v>43257</v>
       </c>
@@ -13880,7 +13887,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A268" s="4">
         <v>43257</v>
       </c>
@@ -13894,7 +13901,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A269" s="4">
         <v>43256</v>
       </c>
@@ -13908,7 +13915,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A270" s="4">
         <v>43256</v>
       </c>
@@ -13922,7 +13929,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A271" s="4">
         <v>43256</v>
       </c>
@@ -13936,7 +13943,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A272" s="4">
         <v>43256</v>
       </c>
@@ -13950,7 +13957,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A273" s="4">
         <v>43256</v>
       </c>
@@ -13964,7 +13971,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A274" s="4">
         <v>43256</v>
       </c>
@@ -13978,7 +13985,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A275" s="4">
         <v>43256</v>
       </c>
@@ -13992,7 +13999,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A276" s="4">
         <v>43256</v>
       </c>
@@ -14006,7 +14013,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A277" s="4">
         <v>43256</v>
       </c>
@@ -14020,7 +14027,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A278" s="4">
         <v>43255</v>
       </c>
@@ -14034,7 +14041,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A279" s="4">
         <v>43255</v>
       </c>
@@ -14048,7 +14055,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A280" s="4">
         <v>43255</v>
       </c>
@@ -14062,7 +14069,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A281" s="4">
         <v>43255</v>
       </c>
@@ -14076,7 +14083,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A282" s="4">
         <v>43255</v>
       </c>
@@ -14090,7 +14097,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A283" s="4">
         <v>43255</v>
       </c>
@@ -14104,7 +14111,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A284" s="4">
         <v>43255</v>
       </c>
@@ -14118,7 +14125,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A285" s="4">
         <v>43255</v>
       </c>
@@ -14132,7 +14139,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A286" s="4">
         <v>43255</v>
       </c>
@@ -14146,7 +14153,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A287" s="4">
         <v>43255</v>
       </c>
@@ -14160,7 +14167,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A288" s="4">
         <v>43255</v>
       </c>
@@ -14174,7 +14181,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A289" s="4">
         <v>43255</v>
       </c>
@@ -14188,7 +14195,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A290" s="4">
         <v>43255</v>
       </c>
@@ -14202,7 +14209,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A291" s="4">
         <v>43255</v>
       </c>
@@ -14216,7 +14223,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="288" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" ht="290" x14ac:dyDescent="0.35">
       <c r="A292" s="4">
         <v>43254</v>
       </c>
@@ -14230,7 +14237,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" ht="348" x14ac:dyDescent="0.35">
       <c r="A293" s="4">
         <v>43254</v>
       </c>
@@ -14244,7 +14251,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A294" s="4">
         <v>43254</v>
       </c>
@@ -14258,7 +14265,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A295" s="4">
         <v>43254</v>
       </c>
@@ -14272,7 +14279,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A296" s="4">
         <v>43254</v>
       </c>
@@ -14286,7 +14293,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A297" s="4">
         <v>43254</v>
       </c>
@@ -14300,7 +14307,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A298" s="4">
         <v>43254</v>
       </c>
@@ -14314,7 +14321,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A299" s="4">
         <v>43254</v>
       </c>
@@ -14328,7 +14335,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A300" s="4">
         <v>43254</v>
       </c>
@@ -14342,7 +14349,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A301" s="4">
         <v>43254</v>
       </c>
@@ -14356,7 +14363,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A302" s="4">
         <v>43254</v>
       </c>
@@ -14370,7 +14377,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A303" s="4">
         <v>43254</v>
       </c>
@@ -14384,7 +14391,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A304" s="4">
         <v>43254</v>
       </c>
@@ -14398,7 +14405,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A305" s="4">
         <v>43254</v>
       </c>
@@ -14412,7 +14419,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A306" s="4">
         <v>43254</v>
       </c>
@@ -14426,7 +14433,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A307" s="4">
         <v>43254</v>
       </c>
@@ -14440,7 +14447,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A308" s="4">
         <v>43254</v>
       </c>
@@ -14454,7 +14461,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A309" s="4">
         <v>43254</v>
       </c>
@@ -14468,7 +14475,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A310" s="4">
         <v>43253</v>
       </c>
@@ -14482,7 +14489,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A311" s="4">
         <v>43253</v>
       </c>
@@ -14496,7 +14503,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A312" s="4">
         <v>43253</v>
       </c>
@@ -14510,7 +14517,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A313" s="4">
         <v>43253</v>
       </c>
@@ -14524,7 +14531,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A314" s="4">
         <v>43253</v>
       </c>
@@ -14538,7 +14545,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A315" s="4">
         <v>43253</v>
       </c>
@@ -14552,7 +14559,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A316" s="4">
         <v>43253</v>
       </c>
@@ -14566,7 +14573,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A317" s="4">
         <v>43253</v>
       </c>
@@ -14580,7 +14587,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A318" s="4">
         <v>43253</v>
       </c>
@@ -14594,7 +14601,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A319" s="4">
         <v>43253</v>
       </c>
@@ -14608,7 +14615,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A320" s="4">
         <v>43252</v>
       </c>
@@ -14622,7 +14629,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A321" s="4">
         <v>43252</v>
       </c>
@@ -14636,7 +14643,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A322" s="4">
         <v>43252</v>
       </c>
@@ -14650,7 +14657,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A323" s="4">
         <v>43252</v>
       </c>
@@ -14664,7 +14671,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A324" s="4">
         <v>43252</v>
       </c>
@@ -14678,7 +14685,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A325" s="4">
         <v>43252</v>
       </c>
@@ -14692,7 +14699,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A326" s="4">
         <v>43252</v>
       </c>
@@ -14706,7 +14713,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A327" s="4">
         <v>43252</v>
       </c>
@@ -14720,7 +14727,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A328" s="4">
         <v>43252</v>
       </c>
@@ -14734,7 +14741,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A329" s="4">
         <v>43252</v>
       </c>
@@ -14748,7 +14755,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A330" s="4">
         <v>43252</v>
       </c>
@@ -14762,7 +14769,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A331" s="4">
         <v>43252</v>
       </c>
@@ -14776,7 +14783,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A332" s="4">
         <v>43252</v>
       </c>
@@ -14790,7 +14797,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A333" s="4">
         <v>43252</v>
       </c>
@@ -14804,7 +14811,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A334" s="4">
         <v>43252</v>
       </c>
@@ -14818,7 +14825,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A335" s="4">
         <v>43251</v>
       </c>
@@ -14832,7 +14839,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A336" s="4">
         <v>43251</v>
       </c>
@@ -14846,7 +14853,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A337" s="4">
         <v>43251</v>
       </c>
@@ -14860,7 +14867,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A338" s="4">
         <v>43251</v>
       </c>
@@ -14874,7 +14881,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A339" s="4">
         <v>43251</v>
       </c>
@@ -14888,7 +14895,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A340" s="4">
         <v>43250</v>
       </c>
@@ -14902,7 +14909,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A341" s="4">
         <v>43250</v>
       </c>
@@ -14916,7 +14923,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A342" s="4">
         <v>43250</v>
       </c>
@@ -14930,7 +14937,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A343" s="4">
         <v>43250</v>
       </c>
@@ -14944,7 +14951,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A344" s="4">
         <v>43250</v>
       </c>
@@ -14958,7 +14965,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A345" s="4">
         <v>43250</v>
       </c>
@@ -14972,7 +14979,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A346" s="4">
         <v>43250</v>
       </c>
@@ -14986,7 +14993,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A347" s="4">
         <v>43250</v>
       </c>
@@ -15000,7 +15007,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A348" s="4">
         <v>43250</v>
       </c>
@@ -15014,7 +15021,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A349" s="4">
         <v>43249</v>
       </c>
@@ -15028,7 +15035,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="288" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4" ht="290" x14ac:dyDescent="0.35">
       <c r="A350" s="4">
         <v>43249</v>
       </c>
@@ -15042,7 +15049,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A351" s="4">
         <v>43249</v>
       </c>
@@ -15056,7 +15063,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A352" s="4">
         <v>43249</v>
       </c>
@@ -15070,7 +15077,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A353" s="4">
         <v>43249</v>
       </c>
@@ -15084,7 +15091,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A354" s="4">
         <v>43249</v>
       </c>
@@ -15098,7 +15105,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A355" s="4">
         <v>43249</v>
       </c>
@@ -15112,7 +15119,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A356" s="4">
         <v>43249</v>
       </c>
@@ -15126,7 +15133,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A357" s="4">
         <v>43249</v>
       </c>
@@ -15140,7 +15147,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A358" s="4">
         <v>43249</v>
       </c>
@@ -15154,7 +15161,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A359" s="4">
         <v>43248</v>
       </c>
@@ -15168,7 +15175,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A360" s="4">
         <v>43248</v>
       </c>
@@ -15182,7 +15189,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A361" s="4">
         <v>43248</v>
       </c>
@@ -15196,7 +15203,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A362" s="4">
         <v>43248</v>
       </c>
@@ -15210,7 +15217,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A363" s="4">
         <v>43248</v>
       </c>
@@ -15224,7 +15231,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A364" s="4">
         <v>43248</v>
       </c>
@@ -15238,7 +15245,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A365" s="4">
         <v>43248</v>
       </c>
@@ -15252,7 +15259,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A366" s="4">
         <v>43248</v>
       </c>
@@ -15266,7 +15273,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A367" s="4">
         <v>43248</v>
       </c>
@@ -15280,7 +15287,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="288" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4" ht="290" x14ac:dyDescent="0.35">
       <c r="A368" s="4">
         <v>43248</v>
       </c>
@@ -15294,7 +15301,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A369" s="4">
         <v>43247</v>
       </c>
@@ -15308,7 +15315,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A370" s="4">
         <v>43247</v>
       </c>
@@ -15322,7 +15329,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A371" s="4">
         <v>43247</v>
       </c>
@@ -15336,7 +15343,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A372" s="4">
         <v>43247</v>
       </c>
@@ -15350,7 +15357,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A373" s="4">
         <v>43247</v>
       </c>
@@ -15364,7 +15371,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A374" s="4">
         <v>43247</v>
       </c>
@@ -15378,7 +15385,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A375" s="4">
         <v>43247</v>
       </c>
@@ -15392,7 +15399,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A376" s="4">
         <v>43247</v>
       </c>
@@ -15406,7 +15413,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A377" s="4">
         <v>43247</v>
       </c>
@@ -15420,7 +15427,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="378" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A378" s="4">
         <v>43247</v>
       </c>
@@ -15434,7 +15441,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A379" s="4">
         <v>43247</v>
       </c>
@@ -15448,7 +15455,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A380" s="4">
         <v>43247</v>
       </c>
@@ -15462,7 +15469,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A381" s="4">
         <v>43247</v>
       </c>
@@ -15476,7 +15483,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A382" s="4">
         <v>43246</v>
       </c>
@@ -15490,7 +15497,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A383" s="4">
         <v>43246</v>
       </c>
@@ -15504,7 +15511,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A384" s="4">
         <v>43246</v>
       </c>
@@ -15518,7 +15525,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A385" s="4">
         <v>43246</v>
       </c>
@@ -15532,7 +15539,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A386" s="4">
         <v>43246</v>
       </c>
@@ -15546,7 +15553,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A387" s="4">
         <v>43246</v>
       </c>
@@ -15560,7 +15567,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A388" s="4">
         <v>43246</v>
       </c>
@@ -15574,7 +15581,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A389" s="4">
         <v>43246</v>
       </c>
@@ -15588,7 +15595,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A390" s="4">
         <v>43246</v>
       </c>
@@ -15602,7 +15609,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A391" s="4">
         <v>43246</v>
       </c>
@@ -15616,7 +15623,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A392" s="4">
         <v>43246</v>
       </c>
@@ -15630,7 +15637,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A393" s="4">
         <v>43246</v>
       </c>
@@ -15644,7 +15651,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A394" s="4">
         <v>43245</v>
       </c>
@@ -15658,7 +15665,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A395" s="4">
         <v>43245</v>
       </c>
@@ -15672,7 +15679,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A396" s="4">
         <v>43245</v>
       </c>
@@ -15686,7 +15693,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A397" s="4">
         <v>43245</v>
       </c>
@@ -15700,7 +15707,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A398" s="4">
         <v>43245</v>
       </c>
@@ -15714,7 +15721,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A399" s="4">
         <v>43245</v>
       </c>
@@ -15728,7 +15735,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A400" s="4">
         <v>43245</v>
       </c>
@@ -15742,7 +15749,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="401" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A401" s="4">
         <v>43245</v>
       </c>
@@ -15756,7 +15763,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="402" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A402" s="4">
         <v>43245</v>
       </c>
@@ -15770,7 +15777,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="403" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A403" s="4">
         <v>43245</v>
       </c>
@@ -15784,7 +15791,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="404" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A404" s="4">
         <v>43245</v>
       </c>
@@ -15798,7 +15805,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A405" s="4">
         <v>43245</v>
       </c>
@@ -15812,7 +15819,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A406" s="4">
         <v>43245</v>
       </c>
@@ -15826,7 +15833,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A407" s="4">
         <v>43245</v>
       </c>
@@ -15840,7 +15847,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A408" s="4">
         <v>43244</v>
       </c>
@@ -15854,7 +15861,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="409" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A409" s="4">
         <v>43244</v>
       </c>
@@ -15868,7 +15875,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="410" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A410" s="4">
         <v>43244</v>
       </c>
@@ -15882,7 +15889,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="411" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A411" s="4">
         <v>43244</v>
       </c>
@@ -15896,7 +15903,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="412" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A412" s="4">
         <v>43244</v>
       </c>
@@ -15910,7 +15917,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="413" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A413" s="4">
         <v>43244</v>
       </c>
@@ -15924,7 +15931,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="414" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A414" s="4">
         <v>43243</v>
       </c>
@@ -15938,7 +15945,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="415" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A415" s="4">
         <v>43243</v>
       </c>
@@ -15952,7 +15959,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="416" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A416" s="4">
         <v>43243</v>
       </c>
@@ -15966,7 +15973,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="417" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A417" s="4">
         <v>43243</v>
       </c>
@@ -15980,7 +15987,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="418" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A418" s="4">
         <v>43243</v>
       </c>
@@ -15994,7 +16001,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="419" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A419" s="4">
         <v>43243</v>
       </c>
@@ -16008,7 +16015,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="420" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A420" s="4">
         <v>43243</v>
       </c>
@@ -16022,7 +16029,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="421" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A421" s="4">
         <v>43243</v>
       </c>
@@ -16036,7 +16043,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="422" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A422" s="4">
         <v>43243</v>
       </c>
@@ -16050,7 +16057,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="423" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A423" s="4">
         <v>43243</v>
       </c>
@@ -16064,7 +16071,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="424" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A424" s="4">
         <v>43242</v>
       </c>
@@ -16078,7 +16085,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="425" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A425" s="4">
         <v>43242</v>
       </c>
@@ -16092,7 +16099,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="426" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A426" s="4">
         <v>43242</v>
       </c>
@@ -16106,7 +16113,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A427" s="4">
         <v>43241</v>
       </c>
@@ -16120,7 +16127,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="428" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A428" s="4">
         <v>43241</v>
       </c>
@@ -16134,7 +16141,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="429" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A429" s="4">
         <v>43241</v>
       </c>
@@ -16148,7 +16155,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="430" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A430" s="4">
         <v>43241</v>
       </c>
@@ -16162,7 +16169,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="431" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A431" s="4">
         <v>43241</v>
       </c>
@@ -16176,7 +16183,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="432" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A432" s="4">
         <v>43241</v>
       </c>
@@ -16190,7 +16197,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="433" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A433" s="4">
         <v>43241</v>
       </c>
@@ -16204,7 +16211,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="434" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A434" s="4">
         <v>43240</v>
       </c>
@@ -16218,7 +16225,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="435" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A435" s="4">
         <v>43240</v>
       </c>
@@ -16232,7 +16239,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="436" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A436" s="4">
         <v>43240</v>
       </c>
@@ -16246,7 +16253,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="437" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A437" s="4">
         <v>43240</v>
       </c>
@@ -16260,7 +16267,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="438" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A438" s="4">
         <v>43240</v>
       </c>
@@ -16274,7 +16281,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="439" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A439" s="4">
         <v>43240</v>
       </c>
@@ -16288,7 +16295,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="440" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A440" s="4">
         <v>43240</v>
       </c>
@@ -16302,7 +16309,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="441" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A441" s="4">
         <v>43240</v>
       </c>
@@ -16316,7 +16323,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="442" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A442" s="4">
         <v>43239</v>
       </c>
@@ -16330,7 +16337,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="443" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A443" s="4">
         <v>43239</v>
       </c>
@@ -16344,7 +16351,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="444" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A444" s="4">
         <v>43239</v>
       </c>
@@ -16358,7 +16365,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="445" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A445" s="4">
         <v>43239</v>
       </c>
@@ -16372,7 +16379,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="446" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A446" s="4">
         <v>43239</v>
       </c>
@@ -16386,7 +16393,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="447" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A447" s="4">
         <v>43239</v>
       </c>
@@ -16400,7 +16407,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="448" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A448" s="4">
         <v>43238</v>
       </c>
@@ -16414,7 +16421,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="449" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A449" s="4">
         <v>43238</v>
       </c>
@@ -16428,7 +16435,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="450" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A450" s="4">
         <v>43238</v>
       </c>
@@ -16442,7 +16449,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="451" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A451" s="4">
         <v>43238</v>
       </c>
@@ -16456,7 +16463,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="452" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A452" s="4">
         <v>43238</v>
       </c>
@@ -16470,7 +16477,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="453" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A453" s="4">
         <v>43238</v>
       </c>
@@ -16484,7 +16491,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="454" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A454" s="4">
         <v>43238</v>
       </c>
@@ -16498,7 +16505,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="455" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A455" s="4">
         <v>43238</v>
       </c>
@@ -16512,7 +16519,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="456" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A456" s="4">
         <v>43237</v>
       </c>
@@ -16526,7 +16533,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="457" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A457" s="4">
         <v>43237</v>
       </c>
@@ -16540,7 +16547,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="458" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A458" s="4">
         <v>43237</v>
       </c>
@@ -16554,7 +16561,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="459" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A459" s="4">
         <v>43236</v>
       </c>
@@ -16568,7 +16575,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="460" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A460" s="4">
         <v>43236</v>
       </c>
@@ -16582,7 +16589,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="461" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A461" s="4">
         <v>43236</v>
       </c>
@@ -16596,7 +16603,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="462" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A462" s="4">
         <v>43236</v>
       </c>
@@ -16610,7 +16617,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="463" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A463" s="4">
         <v>43235</v>
       </c>
@@ -16624,7 +16631,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="464" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A464" s="4">
         <v>43235</v>
       </c>
@@ -16638,7 +16645,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="465" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A465" s="4">
         <v>43235</v>
       </c>
@@ -16652,7 +16659,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="466" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A466" s="4">
         <v>43235</v>
       </c>
@@ -16666,7 +16673,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="467" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A467" s="4">
         <v>43235</v>
       </c>
@@ -16680,7 +16687,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="468" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A468" s="4">
         <v>43235</v>
       </c>
@@ -16694,7 +16701,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="469" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A469" s="4">
         <v>43235</v>
       </c>
@@ -16708,7 +16715,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="470" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A470" s="4">
         <v>43234</v>
       </c>
@@ -16722,7 +16729,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="471" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A471" s="4">
         <v>43234</v>
       </c>
@@ -16736,7 +16743,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="472" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A472" s="4">
         <v>43234</v>
       </c>
@@ -16750,7 +16757,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="473" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A473" s="4">
         <v>43234</v>
       </c>
@@ -16764,7 +16771,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="474" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A474" s="4">
         <v>43234</v>
       </c>
@@ -16778,7 +16785,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="475" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A475" s="4">
         <v>43234</v>
       </c>
@@ -16792,7 +16799,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="476" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A476" s="4">
         <v>43234</v>
       </c>
@@ -16806,7 +16813,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="477" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A477" s="4">
         <v>43234</v>
       </c>
@@ -16820,7 +16827,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="478" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A478" s="4">
         <v>43234</v>
       </c>
@@ -16834,7 +16841,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="479" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:4" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A479" s="4">
         <v>43234</v>
       </c>
@@ -16848,7 +16855,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="480" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A480" s="4">
         <v>43234</v>
       </c>
@@ -16862,7 +16869,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="481" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A481" s="4">
         <v>43234</v>
       </c>
@@ -16876,7 +16883,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="482" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A482" s="4">
         <v>43234</v>
       </c>
@@ -16890,7 +16897,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="483" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A483" s="4">
         <v>43234</v>
       </c>
@@ -16904,7 +16911,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="484" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A484" s="4">
         <v>43233</v>
       </c>
@@ -16918,7 +16925,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="485" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A485" s="4">
         <v>43233</v>
       </c>
@@ -16932,7 +16939,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="486" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A486" s="4">
         <v>43233</v>
       </c>
@@ -16946,7 +16953,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="487" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A487" s="4">
         <v>43233</v>
       </c>
@@ -16960,7 +16967,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="488" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A488" s="4">
         <v>43233</v>
       </c>
@@ -16974,7 +16981,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="489" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A489" s="4">
         <v>43233</v>
       </c>
@@ -16988,7 +16995,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="490" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A490" s="4">
         <v>43233</v>
       </c>
@@ -17002,7 +17009,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="491" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A491" s="4">
         <v>43233</v>
       </c>
@@ -17016,7 +17023,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="492" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A492" s="4">
         <v>43233</v>
       </c>
@@ -17030,7 +17037,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="493" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A493" s="4">
         <v>43233</v>
       </c>
@@ -17044,7 +17051,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="494" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A494" s="4">
         <v>43233</v>
       </c>
@@ -17058,7 +17065,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="495" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A495" s="4">
         <v>43232</v>
       </c>
@@ -17072,7 +17079,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="496" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A496" s="4">
         <v>43232</v>
       </c>
@@ -17086,7 +17093,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="497" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A497" s="4">
         <v>43232</v>
       </c>
@@ -17100,7 +17107,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="498" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A498" s="4">
         <v>43232</v>
       </c>
@@ -17114,7 +17121,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="499" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A499" s="4">
         <v>43232</v>
       </c>
@@ -17128,7 +17135,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="500" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A500" s="4">
         <v>43232</v>
       </c>
@@ -17142,7 +17149,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="501" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A501" s="4">
         <v>43232</v>
       </c>
@@ -17156,7 +17163,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="502" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A502" s="4">
         <v>43232</v>
       </c>
@@ -17170,7 +17177,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="503" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A503" s="4">
         <v>43231</v>
       </c>
@@ -17184,7 +17191,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="504" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A504" s="4">
         <v>43231</v>
       </c>
@@ -17198,7 +17205,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="505" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A505" s="4">
         <v>43231</v>
       </c>
@@ -17212,7 +17219,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="506" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A506" s="4">
         <v>43231</v>
       </c>
@@ -17226,7 +17233,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="507" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A507" s="4">
         <v>43231</v>
       </c>
@@ -17240,7 +17247,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="508" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A508" s="4">
         <v>43231</v>
       </c>
@@ -17254,7 +17261,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="509" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A509" s="4">
         <v>43231</v>
       </c>
@@ -17268,7 +17275,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="510" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A510" s="4">
         <v>43231</v>
       </c>
@@ -17282,7 +17289,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="511" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A511" s="4">
         <v>43230</v>
       </c>
@@ -17296,7 +17303,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="512" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A512" s="4">
         <v>43230</v>
       </c>
@@ -17310,7 +17317,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="513" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A513" s="4">
         <v>43230</v>
       </c>
@@ -17324,7 +17331,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="514" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A514" s="4">
         <v>43230</v>
       </c>
@@ -17338,7 +17345,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="515" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A515" s="4">
         <v>43230</v>
       </c>
@@ -17352,7 +17359,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="516" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A516" s="4">
         <v>43230</v>
       </c>
@@ -17366,7 +17373,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="517" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A517" s="4">
         <v>43230</v>
       </c>
@@ -17380,7 +17387,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="518" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A518" s="4">
         <v>43230</v>
       </c>
@@ -17394,7 +17401,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="519" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A519" s="4">
         <v>43230</v>
       </c>
@@ -17408,7 +17415,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="520" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A520" s="4">
         <v>43230</v>
       </c>
@@ -17422,7 +17429,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="521" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A521" s="4">
         <v>43229</v>
       </c>
@@ -17436,7 +17443,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="522" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A522" s="4">
         <v>43229</v>
       </c>
@@ -17450,7 +17457,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="523" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A523" s="4">
         <v>43229</v>
       </c>
@@ -17464,7 +17471,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="524" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A524" s="4">
         <v>43229</v>
       </c>
@@ -17478,7 +17485,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="525" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A525" s="4">
         <v>43229</v>
       </c>
@@ -17492,7 +17499,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="526" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A526" s="4">
         <v>43229</v>
       </c>
@@ -17506,7 +17513,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="527" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A527" s="4">
         <v>43228</v>
       </c>
@@ -17520,7 +17527,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="528" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A528" s="4">
         <v>43228</v>
       </c>
@@ -17534,7 +17541,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="529" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A529" s="4">
         <v>43228</v>
       </c>
@@ -17548,7 +17555,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="530" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A530" s="4">
         <v>43228</v>
       </c>
@@ -17562,7 +17569,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="531" spans="1:4" ht="288" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:4" ht="290" x14ac:dyDescent="0.35">
       <c r="A531" s="4">
         <v>43228</v>
       </c>
@@ -17576,7 +17583,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="532" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A532" s="4">
         <v>43228</v>
       </c>
@@ -17590,7 +17597,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="533" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A533" s="4">
         <v>43228</v>
       </c>
@@ -17604,7 +17611,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="534" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A534" s="4">
         <v>43228</v>
       </c>
@@ -17618,7 +17625,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="535" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A535" s="4">
         <v>43227</v>
       </c>
@@ -17632,7 +17639,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="536" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A536" s="4">
         <v>43227</v>
       </c>
@@ -17646,7 +17653,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="537" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A537" s="4">
         <v>43227</v>
       </c>
@@ -17660,7 +17667,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="538" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A538" s="4">
         <v>43227</v>
       </c>
@@ -17674,7 +17681,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="539" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A539" s="4">
         <v>43227</v>
       </c>
@@ -17688,7 +17695,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="540" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A540" s="4">
         <v>43227</v>
       </c>
@@ -17702,7 +17709,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="541" spans="1:4" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:4" ht="319" x14ac:dyDescent="0.35">
       <c r="A541" s="4">
         <v>43227</v>
       </c>
@@ -17716,7 +17723,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="542" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A542" s="4">
         <v>43227</v>
       </c>
@@ -17730,7 +17737,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="543" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A543" s="4">
         <v>43227</v>
       </c>
@@ -17744,7 +17751,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="544" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A544" s="4">
         <v>43227</v>
       </c>
@@ -17758,7 +17765,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="545" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A545" s="4">
         <v>43227</v>
       </c>
@@ -17772,7 +17779,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="546" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A546" s="4">
         <v>43226</v>
       </c>
@@ -17786,7 +17793,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="547" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A547" s="4">
         <v>43226</v>
       </c>
@@ -17800,7 +17807,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="548" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A548" s="4">
         <v>43226</v>
       </c>
@@ -17814,7 +17821,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="549" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A549" s="4">
         <v>43226</v>
       </c>
@@ -17828,7 +17835,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="550" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A550" s="4">
         <v>43226</v>
       </c>
@@ -17842,7 +17849,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="551" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A551" s="4">
         <v>43226</v>
       </c>
@@ -17856,7 +17863,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="552" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A552" s="4">
         <v>43226</v>
       </c>
@@ -17870,7 +17877,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="553" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A553" s="4">
         <v>43226</v>
       </c>
@@ -17884,7 +17891,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="554" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A554" s="4">
         <v>43226</v>
       </c>
@@ -17898,7 +17905,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="555" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A555" s="4">
         <v>43226</v>
       </c>
@@ -17912,7 +17919,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="556" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A556" s="4">
         <v>43226</v>
       </c>
@@ -17926,7 +17933,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="557" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A557" s="4">
         <v>43226</v>
       </c>
@@ -17940,7 +17947,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="558" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A558" s="4">
         <v>43226</v>
       </c>
@@ -17954,7 +17961,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="559" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A559" s="4">
         <v>43226</v>
       </c>
@@ -17968,7 +17975,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="560" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A560" s="4">
         <v>43226</v>
       </c>
@@ -17982,7 +17989,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="561" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A561" s="4">
         <v>43226</v>
       </c>
@@ -17996,7 +18003,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="562" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A562" s="4">
         <v>43226</v>
       </c>
@@ -18010,7 +18017,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="563" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A563" s="4">
         <v>43225</v>
       </c>
@@ -18024,7 +18031,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="564" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A564" s="4">
         <v>43225</v>
       </c>
@@ -18038,7 +18045,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="565" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A565" s="4">
         <v>43225</v>
       </c>
@@ -18052,7 +18059,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="566" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A566" s="4">
         <v>43225</v>
       </c>
@@ -18066,7 +18073,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="567" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A567" s="4">
         <v>43225</v>
       </c>
@@ -18080,7 +18087,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="568" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A568" s="4">
         <v>43225</v>
       </c>
@@ -18094,7 +18101,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="569" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A569" s="4">
         <v>43225</v>
       </c>
@@ -18108,7 +18115,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="570" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A570" s="4">
         <v>43225</v>
       </c>
@@ -18122,7 +18129,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="571" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A571" s="4">
         <v>43225</v>
       </c>
@@ -18136,7 +18143,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="572" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A572" s="4">
         <v>43225</v>
       </c>
@@ -18150,7 +18157,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="573" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A573" s="4">
         <v>43225</v>
       </c>
@@ -18164,7 +18171,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="574" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A574" s="4">
         <v>43225</v>
       </c>
@@ -18178,7 +18185,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="575" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A575" s="4">
         <v>43225</v>
       </c>
@@ -18192,7 +18199,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="576" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A576" s="4">
         <v>43225</v>
       </c>
@@ -18206,7 +18213,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="577" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A577" s="4">
         <v>43225</v>
       </c>
@@ -18214,7 +18221,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="578" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A578" s="4">
         <v>43224</v>
       </c>
@@ -18228,7 +18235,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="579" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A579" s="4">
         <v>43224</v>
       </c>
@@ -18242,7 +18249,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="580" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A580" s="4">
         <v>43224</v>
       </c>
@@ -18256,7 +18263,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="581" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A581" s="4">
         <v>43224</v>
       </c>
@@ -18270,7 +18277,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="582" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A582" s="4">
         <v>43224</v>
       </c>
@@ -18284,7 +18291,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="583" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A583" s="4">
         <v>43223</v>
       </c>
@@ -18298,7 +18305,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="584" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A584" s="4">
         <v>43223</v>
       </c>
@@ -18312,7 +18319,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="585" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A585" s="4">
         <v>43223</v>
       </c>
@@ -18326,7 +18333,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="586" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A586" s="4">
         <v>43223</v>
       </c>
@@ -18340,7 +18347,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="587" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A587" s="4">
         <v>43222</v>
       </c>
@@ -18354,7 +18361,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="588" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A588" s="4">
         <v>43222</v>
       </c>
@@ -18368,7 +18375,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="589" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A589" s="4">
         <v>43222</v>
       </c>
@@ -18382,7 +18389,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="590" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A590" s="4">
         <v>43222</v>
       </c>
@@ -18396,7 +18403,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="591" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A591" s="4">
         <v>43221</v>
       </c>
@@ -18410,7 +18417,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="592" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A592" s="4">
         <v>43221</v>
       </c>
@@ -18424,7 +18431,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="593" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A593" s="4">
         <v>43221</v>
       </c>
@@ -18438,7 +18445,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="594" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A594" s="4">
         <v>43221</v>
       </c>
@@ -18452,7 +18459,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="595" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A595" s="4">
         <v>43221</v>
       </c>
@@ -18466,7 +18473,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="596" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A596" s="4">
         <v>43221</v>
       </c>
@@ -18480,7 +18487,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="597" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A597" s="4">
         <v>43221</v>
       </c>
@@ -18494,7 +18501,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="598" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A598" s="4">
         <v>43221</v>
       </c>
@@ -18508,7 +18515,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="599" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A599" s="4">
         <v>43221</v>
       </c>
@@ -18522,7 +18529,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="600" spans="1:4" ht="288" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:4" ht="290" x14ac:dyDescent="0.35">
       <c r="A600" s="4">
         <v>43221</v>
       </c>
@@ -18536,7 +18543,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="601" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A601" s="4">
         <v>43221</v>
       </c>
@@ -18550,7 +18557,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="602" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A602" s="4">
         <v>43220</v>
       </c>
@@ -18564,7 +18571,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="603" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A603" s="4">
         <v>43220</v>
       </c>
@@ -18578,7 +18585,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="604" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A604" s="4">
         <v>43220</v>
       </c>
@@ -18592,7 +18599,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="605" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A605" s="4">
         <v>43220</v>
       </c>
@@ -18606,7 +18613,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="606" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A606" s="4">
         <v>43220</v>
       </c>
@@ -18620,7 +18627,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="607" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A607" s="4">
         <v>43219</v>
       </c>
@@ -18634,7 +18641,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="608" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A608" s="4">
         <v>43219</v>
       </c>
@@ -18648,7 +18655,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="609" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A609" s="4">
         <v>43219</v>
       </c>
@@ -18662,7 +18669,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="610" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A610" s="4">
         <v>43219</v>
       </c>
@@ -18676,7 +18683,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="611" spans="1:4" ht="288" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:4" ht="290" x14ac:dyDescent="0.35">
       <c r="A611" s="4">
         <v>43219</v>
       </c>
@@ -18690,7 +18697,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="612" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A612" s="4">
         <v>43219</v>
       </c>
@@ -18704,7 +18711,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="613" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A613" s="4">
         <v>43219</v>
       </c>
@@ -18718,7 +18725,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="614" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A614" s="4">
         <v>43219</v>
       </c>
@@ -18732,7 +18739,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="615" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A615" s="4">
         <v>43219</v>
       </c>
@@ -18746,7 +18753,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="616" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A616" s="4">
         <v>43219</v>
       </c>
@@ -18760,7 +18767,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="617" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A617" s="4">
         <v>43219</v>
       </c>
@@ -18774,7 +18781,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="618" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A618" s="4">
         <v>43218</v>
       </c>
@@ -18788,7 +18795,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="619" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:4" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A619" s="4">
         <v>43218</v>
       </c>
@@ -18802,7 +18809,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="620" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A620" s="4">
         <v>43218</v>
       </c>
@@ -18816,7 +18823,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="621" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A621" s="4">
         <v>43218</v>
       </c>
@@ -18830,7 +18837,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="622" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A622" s="4">
         <v>43218</v>
       </c>
@@ -18844,7 +18851,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="623" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A623" s="4">
         <v>43218</v>
       </c>
@@ -18858,7 +18865,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="624" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A624" s="4">
         <v>43218</v>
       </c>
@@ -18872,7 +18879,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="625" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A625" s="4">
         <v>43218</v>
       </c>
@@ -18886,7 +18893,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="626" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A626" s="4">
         <v>43218</v>
       </c>
@@ -18900,7 +18907,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="627" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A627" s="4">
         <v>43218</v>
       </c>
@@ -18914,7 +18921,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="628" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A628" s="4">
         <v>43217</v>
       </c>
@@ -18928,7 +18935,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="629" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A629" s="4">
         <v>43217</v>
       </c>
@@ -18942,7 +18949,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="630" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A630" s="4">
         <v>43217</v>
       </c>
@@ -18956,7 +18963,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="631" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A631" s="4">
         <v>43217</v>
       </c>
@@ -18970,7 +18977,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="632" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A632" s="4">
         <v>43217</v>
       </c>
@@ -18984,7 +18991,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="633" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A633" s="4">
         <v>43217</v>
       </c>
@@ -18998,7 +19005,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="634" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:4" ht="174" x14ac:dyDescent="0.35">
       <c r="A634" s="4">
         <v>43217</v>
       </c>
@@ -19012,7 +19019,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="635" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A635" s="4">
         <v>43216</v>
       </c>
@@ -19026,7 +19033,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="636" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A636" s="4">
         <v>43216</v>
       </c>
@@ -19040,7 +19047,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="637" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A637" s="4">
         <v>43216</v>
       </c>
@@ -19054,7 +19061,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="638" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A638" s="4">
         <v>43216</v>
       </c>
@@ -19068,7 +19075,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="639" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A639" s="4">
         <v>43216</v>
       </c>
@@ -19082,7 +19089,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="640" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A640" s="4">
         <v>43216</v>
       </c>
@@ -19096,7 +19103,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="641" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A641" s="4">
         <v>43216</v>
       </c>
@@ -19110,7 +19117,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="642" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A642" s="4">
         <v>43215</v>
       </c>
@@ -19124,7 +19131,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="643" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A643" s="4">
         <v>43215</v>
       </c>
@@ -19138,7 +19145,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="644" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A644" s="4">
         <v>43215</v>
       </c>
@@ -19152,7 +19159,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="645" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A645" s="4">
         <v>43215</v>
       </c>
@@ -19166,7 +19173,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="646" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A646" s="4">
         <v>43215</v>
       </c>
@@ -19180,7 +19187,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="647" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A647" s="4">
         <v>43215</v>
       </c>
@@ -19194,7 +19201,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="648" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A648" s="4">
         <v>43214</v>
       </c>
@@ -19208,7 +19215,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="649" spans="1:4" ht="288" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:4" ht="290" x14ac:dyDescent="0.35">
       <c r="A649" s="4">
         <v>43214</v>
       </c>
@@ -19222,7 +19229,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="650" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A650" s="4">
         <v>43214</v>
       </c>
@@ -19236,7 +19243,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="651" spans="1:4" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:4" ht="319" x14ac:dyDescent="0.35">
       <c r="A651" s="4">
         <v>43213</v>
       </c>
@@ -19250,7 +19257,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="652" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A652" s="4">
         <v>43213</v>
       </c>
@@ -19264,7 +19271,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="653" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A653" s="4">
         <v>43213</v>
       </c>
@@ -19278,7 +19285,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="654" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A654" s="4">
         <v>43213</v>
       </c>
@@ -19292,7 +19299,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="655" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A655" s="4">
         <v>43213</v>
       </c>
@@ -19306,7 +19313,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="656" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A656" s="4">
         <v>43212</v>
       </c>
@@ -19320,7 +19327,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="657" spans="1:4" ht="288" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:4" ht="290" x14ac:dyDescent="0.35">
       <c r="A657" s="4">
         <v>43212</v>
       </c>
@@ -19334,7 +19341,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="658" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A658" s="4">
         <v>43212</v>
       </c>
@@ -19348,7 +19355,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="659" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A659" s="4">
         <v>43212</v>
       </c>
@@ -19362,7 +19369,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="660" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A660" s="4">
         <v>43212</v>
       </c>
@@ -19376,7 +19383,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="661" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A661" s="4">
         <v>43212</v>
       </c>
@@ -19390,7 +19397,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="662" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A662" s="4">
         <v>43212</v>
       </c>
@@ -19404,7 +19411,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="663" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A663" s="4">
         <v>43212</v>
       </c>
@@ -19418,7 +19425,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="664" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A664" s="4">
         <v>43212</v>
       </c>
@@ -19432,7 +19439,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="665" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A665" s="4">
         <v>43212</v>
       </c>
@@ -19446,7 +19453,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="666" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A666" s="4">
         <v>43212</v>
       </c>
@@ -19460,7 +19467,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="667" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:4" ht="145" x14ac:dyDescent="0.35">
       <c r="A667" s="4">
         <v>43212</v>
       </c>
@@ -19474,7 +19481,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="668" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:4" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A668" s="4">
         <v>43211</v>
       </c>
@@ -19488,7 +19495,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="669" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A669" s="4">
         <v>43211</v>
       </c>
@@ -19502,7 +19509,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="670" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A670" s="4">
         <v>43211</v>
       </c>
@@ -19516,7 +19523,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="671" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A671" s="4">
         <v>43211</v>
       </c>
@@ -19530,7 +19537,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="672" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A672" s="4">
         <v>43211</v>
       </c>
@@ -19544,7 +19551,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="673" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A673" s="4">
         <v>43211</v>
       </c>
@@ -19558,7 +19565,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="674" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A674" s="4">
         <v>43211</v>
       </c>
@@ -19572,7 +19579,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="675" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A675" s="4">
         <v>43211</v>
       </c>
@@ -19586,7 +19593,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="676" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A676" s="4">
         <v>43211</v>
       </c>
@@ -19600,7 +19607,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="677" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A677" s="4">
         <v>43211</v>
       </c>
@@ -19614,7 +19621,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="678" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A678" s="4">
         <v>43211</v>
       </c>
@@ -19628,7 +19635,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="679" spans="1:4" ht="288" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:4" ht="290" x14ac:dyDescent="0.35">
       <c r="A679" s="4">
         <v>43211</v>
       </c>
@@ -19642,7 +19649,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="680" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:4" ht="261" x14ac:dyDescent="0.35">
       <c r="A680" s="4">
         <v>43210</v>
       </c>
@@ -19656,7 +19663,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="681" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A681" s="4">
         <v>43210</v>
       </c>
@@ -19670,7 +19677,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="682" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A682" s="4">
         <v>43210</v>
       </c>
@@ -19684,7 +19691,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="683" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A683" s="4">
         <v>43210</v>
       </c>
@@ -19698,7 +19705,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="684" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:4" ht="232" x14ac:dyDescent="0.35">
       <c r="A684" s="4">
         <v>43210</v>
       </c>
@@ -19712,7 +19719,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="685" spans="1:4" ht="288" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:4" ht="290" x14ac:dyDescent="0.35">
       <c r="A685" s="4">
         <v>43209</v>
       </c>
@@ -19726,7 +19733,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="686" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A686" s="4">
         <v>43209</v>
       </c>
@@ -19740,7 +19747,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="687" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A687" s="4">
         <v>43209</v>
       </c>
@@ -19754,7 +19761,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="688" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A688" s="4">
         <v>43209</v>
       </c>
@@ -19768,7 +19775,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="689" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A689" s="4">
         <v>43209</v>
       </c>
@@ -19782,7 +19789,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="690" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A690" s="4">
         <v>43209</v>
       </c>
@@ -19796,7 +19803,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="691" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A691" s="4">
         <v>43209</v>
       </c>
@@ -19810,7 +19817,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A692" s="4">
         <v>43208</v>
       </c>
@@ -19824,7 +19831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="693" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A693" s="4">
         <v>43208</v>
       </c>
@@ -19838,7 +19845,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="694" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A694" s="4">
         <v>43208</v>
       </c>
@@ -19852,7 +19859,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="695" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A695" s="4">
         <v>43208</v>
       </c>
@@ -19866,7 +19873,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="696" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A696" s="4">
         <v>43207</v>
       </c>
@@ -19880,7 +19887,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="697" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A697" s="4">
         <v>43207</v>
       </c>
@@ -19894,7 +19901,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="698" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A698" s="4">
         <v>43207</v>
       </c>
@@ -19908,7 +19915,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="699" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A699" s="4">
         <v>43207</v>
       </c>
@@ -19922,7 +19929,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="700" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A700" s="4">
         <v>43206</v>
       </c>
@@ -19936,7 +19943,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="701" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A701" s="4">
         <v>43206</v>
       </c>
@@ -19950,7 +19957,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="702" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A702" s="4">
         <v>43205</v>
       </c>
@@ -19964,7 +19971,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="703" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A703" s="4">
         <v>43205</v>
       </c>
@@ -19978,7 +19985,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="704" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A704" s="4">
         <v>43205</v>
       </c>
@@ -19992,7 +19999,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="705" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A705" s="4">
         <v>43205</v>
       </c>
@@ -20006,7 +20013,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="706" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A706" s="4">
         <v>43205</v>
       </c>
@@ -20020,7 +20027,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="707" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A707" s="4">
         <v>43205</v>
       </c>
@@ -20034,7 +20041,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="708" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A708" s="4">
         <v>43204</v>
       </c>
@@ -20048,7 +20055,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="709" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A709" s="4">
         <v>43204</v>
       </c>
@@ -20062,7 +20069,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="710" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A710" s="4">
         <v>43204</v>
       </c>
@@ -20076,7 +20083,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="711" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A711" s="4">
         <v>43204</v>
       </c>
@@ -20090,7 +20097,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="712" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A712" s="4">
         <v>43203</v>
       </c>
@@ -20104,7 +20111,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="713" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A713" s="4">
         <v>43203</v>
       </c>
@@ -20118,7 +20125,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="714" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A714" s="4">
         <v>43203</v>
       </c>
@@ -20132,7 +20139,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="715" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A715" s="4">
         <v>43203</v>
       </c>
@@ -20146,7 +20153,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="716" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A716" s="4">
         <v>43203</v>
       </c>
@@ -20160,7 +20167,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="717" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A717" s="4">
         <v>43203</v>
       </c>
@@ -20174,7 +20181,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="718" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A718" s="4">
         <v>43202</v>
       </c>
@@ -20188,7 +20195,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="719" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A719" s="4">
         <v>43202</v>
       </c>
@@ -20202,7 +20209,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="720" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A720" s="4">
         <v>43202</v>
       </c>
@@ -20216,7 +20223,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="721" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A721" s="4">
         <v>43201</v>
       </c>
@@ -20230,7 +20237,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="722" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A722" s="4">
         <v>43201</v>
       </c>
@@ -20244,7 +20251,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="723" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A723" s="4">
         <v>43201</v>
       </c>
@@ -20258,7 +20265,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="724" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A724" s="4">
         <v>43201</v>
       </c>
@@ -20272,7 +20279,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="725" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A725" s="4">
         <v>43201</v>
       </c>
@@ -20286,7 +20293,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="726" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A726" s="4">
         <v>43201</v>
       </c>
@@ -20300,7 +20307,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="727" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A727" s="4">
         <v>43201</v>
       </c>
@@ -20314,7 +20321,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="728" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A728" s="4">
         <v>43201</v>
       </c>
@@ -20328,7 +20335,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="729" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A729" s="4">
         <v>43200</v>
       </c>
@@ -20342,7 +20349,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="730" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A730" s="4">
         <v>43200</v>
       </c>
@@ -20356,7 +20363,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="731" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A731" s="4">
         <v>43200</v>
       </c>
@@ -20370,7 +20377,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="732" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A732" s="4">
         <v>43199</v>
       </c>
@@ -20384,7 +20391,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="733" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A733" s="4">
         <v>43199</v>
       </c>
@@ -20398,7 +20405,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="734" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A734" s="4">
         <v>43199</v>
       </c>
@@ -20412,7 +20419,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="735" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A735" s="4">
         <v>43199</v>
       </c>
@@ -20426,7 +20433,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="736" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A736" s="4">
         <v>43199</v>
       </c>
@@ -20440,7 +20447,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="737" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A737" s="4">
         <v>43199</v>
       </c>
@@ -20454,7 +20461,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="738" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A738" s="4">
         <v>43199</v>
       </c>
@@ -20468,7 +20475,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="739" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A739" s="4">
         <v>43199</v>
       </c>
@@ -20482,7 +20489,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="740" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A740" s="4">
         <v>43198</v>
       </c>
@@ -20496,7 +20503,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="741" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A741" s="4">
         <v>43198</v>
       </c>
@@ -20510,7 +20517,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="742" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A742" s="4">
         <v>43198</v>
       </c>
@@ -20524,7 +20531,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="743" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A743" s="4">
         <v>43198</v>
       </c>
@@ -20538,7 +20545,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="744" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A744" s="4">
         <v>43198</v>
       </c>
@@ -20552,7 +20559,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="745" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A745" s="4">
         <v>43198</v>
       </c>
@@ -20566,7 +20573,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="746" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A746" s="4">
         <v>43198</v>
       </c>
@@ -20580,7 +20587,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="747" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A747" s="4">
         <v>43198</v>
       </c>
@@ -20594,7 +20601,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="748" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A748" s="4">
         <v>43198</v>
       </c>
@@ -20608,7 +20615,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="749" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A749" s="4">
         <v>43198</v>
       </c>
@@ -20622,7 +20629,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="750" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A750" s="4">
         <v>43198</v>
       </c>
@@ -20636,7 +20643,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="751" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A751" s="4">
         <v>43198</v>
       </c>
@@ -20650,7 +20657,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="752" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A752" s="4">
         <v>43198</v>
       </c>
@@ -20664,7 +20671,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="753" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A753" s="4">
         <v>43197</v>
       </c>
@@ -20678,7 +20685,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="754" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A754" s="4">
         <v>43197</v>
       </c>
@@ -20692,7 +20699,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="755" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A755" s="4">
         <v>43197</v>
       </c>
@@ -20706,7 +20713,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="756" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A756" s="4">
         <v>43196</v>
       </c>
@@ -20720,7 +20727,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="757" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A757" s="4">
         <v>43196</v>
       </c>
@@ -20734,7 +20741,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="758" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A758" s="4">
         <v>43196</v>
       </c>
@@ -20748,7 +20755,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="759" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A759" s="4">
         <v>43195</v>
       </c>
@@ -20762,7 +20769,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="760" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A760" s="4">
         <v>43195</v>
       </c>
@@ -20776,7 +20783,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="761" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A761" s="4">
         <v>43195</v>
       </c>
@@ -20790,7 +20797,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="762" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A762" s="4">
         <v>43195</v>
       </c>
@@ -20804,7 +20811,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="763" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A763" s="4">
         <v>43194</v>
       </c>
@@ -20818,7 +20825,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="764" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A764" s="4">
         <v>43194</v>
       </c>
@@ -20832,7 +20839,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="765" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A765" s="4">
         <v>43194</v>
       </c>
@@ -20846,7 +20853,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="766" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A766" s="4">
         <v>43194</v>
       </c>
@@ -20860,7 +20867,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="767" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A767" s="4">
         <v>43193</v>
       </c>
@@ -20874,7 +20881,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="768" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A768" s="4">
         <v>43193</v>
       </c>
@@ -20888,7 +20895,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="769" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A769" s="4">
         <v>43193</v>
       </c>
@@ -20902,7 +20909,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="770" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A770" s="4">
         <v>43193</v>
       </c>
@@ -20916,7 +20923,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="771" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A771" s="4">
         <v>43192</v>
       </c>
@@ -20930,7 +20937,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="772" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A772" s="4">
         <v>43192</v>
       </c>
@@ -20944,7 +20951,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="773" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A773" s="4">
         <v>43192</v>
       </c>
@@ -20958,7 +20965,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="774" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A774" s="4">
         <v>43192</v>
       </c>
@@ -20972,7 +20979,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="775" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A775" s="4">
         <v>43192</v>
       </c>
@@ -20986,7 +20993,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="776" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A776" s="4">
         <v>43191</v>
       </c>
@@ -21000,7 +21007,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="777" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A777" s="4">
         <v>43191</v>
       </c>
@@ -21014,7 +21021,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="778" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A778" s="4">
         <v>43191</v>
       </c>
@@ -21028,7 +21035,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="779" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A779" s="4">
         <v>43191</v>
       </c>
@@ -21042,7 +21049,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="780" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A780" s="4">
         <v>43191</v>
       </c>
@@ -21056,7 +21063,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="781" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A781" s="4">
         <v>43191</v>
       </c>
@@ -21070,7 +21077,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="782" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A782" s="4">
         <v>43191</v>
       </c>
@@ -21084,7 +21091,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="783" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A783" s="4">
         <v>43191</v>
       </c>
@@ -21098,7 +21105,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="784" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A784" s="4">
         <v>43191</v>
       </c>
@@ -21112,7 +21119,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="785" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A785" s="4">
         <v>43191</v>
       </c>
@@ -21125,6 +21132,30 @@
       <c r="D785" s="1" t="s">
         <v>419</v>
       </c>
+    </row>
+    <row r="786" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A786" s="4">
+        <v>43191</v>
+      </c>
+      <c r="B786" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C786" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D786" s="1"/>
+    </row>
+    <row r="787" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A787" s="4">
+        <v>43191</v>
+      </c>
+      <c r="B787" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C787" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D787" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
